--- a/A16 FoodStats.xlsx
+++ b/A16 FoodStats.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="193">
   <si>
     <t>foodHoney</t>
   </si>
@@ -114,9 +114,6 @@
     <t>BearStew</t>
   </si>
   <si>
-    <t>FishChowder</t>
-  </si>
-  <si>
     <t>ApplePie</t>
   </si>
   <si>
@@ -411,9 +408,6 @@
     <t>potato+corn+Carrot+bottledWater</t>
   </si>
   <si>
-    <t>bottledWater+fishFillet+potato</t>
-  </si>
-  <si>
     <t>Venison Steak</t>
   </si>
   <si>
@@ -594,7 +588,13 @@
     <t>KabobLarge</t>
   </si>
   <si>
-    <t>bakedPotatoXXSTART HEREXX</t>
+    <t>bakedPotato</t>
+  </si>
+  <si>
+    <t>HartyStew</t>
+  </si>
+  <si>
+    <t>bottledWater+Protein+2 Veggies</t>
   </si>
 </sst>
 </file>
@@ -5944,8 +5944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="P114" sqref="P114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -5976,78 +5976,78 @@
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="J1" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P1" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S1" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S1" s="3" t="s">
+      <c r="T1" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U1" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U1" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V1" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -6057,43 +6057,43 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S2" s="3" t="s">
+      <c r="T2" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V2" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.3">
@@ -6145,7 +6145,7 @@
         <v>0</v>
       </c>
       <c r="V3" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.3">
@@ -6197,12 +6197,12 @@
         <v>0</v>
       </c>
       <c r="V4" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="5"/>
@@ -6245,80 +6245,80 @@
         <v>0</v>
       </c>
       <c r="V5" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="3" t="s">
+      <c r="H6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="J6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O6" s="3" t="s">
+      <c r="Q6" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S6" s="3" t="s">
+      <c r="T6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U6" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T6" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U6" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V6" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:23" s="18" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B7" s="17"/>
       <c r="C7" s="17"/>
@@ -6352,7 +6352,7 @@
         <v>0</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="T7" s="17">
         <v>1</v>
@@ -6361,7 +6361,7 @@
         <v>0</v>
       </c>
       <c r="V7" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.3">
@@ -6413,7 +6413,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.3">
@@ -6465,12 +6465,12 @@
         <v>0</v>
       </c>
       <c r="V9" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="5"/>
@@ -6513,12 +6513,12 @@
         <v>0</v>
       </c>
       <c r="V10" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="5"/>
@@ -6529,48 +6529,48 @@
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
       <c r="J11" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L11" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O11" s="3" t="s">
+      <c r="Q11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S11" s="3" t="s">
+      <c r="T11" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T11" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U11" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V11" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="5"/>
@@ -6593,12 +6593,12 @@
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
       <c r="V12" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="5"/>
@@ -6623,75 +6623,75 @@
     </row>
     <row r="14" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="J14" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O14" s="3" t="s">
+      <c r="Q14" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q14" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S14" s="3" t="s">
+      <c r="T14" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U14" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V14" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:23" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -6725,22 +6725,22 @@
         <v>0</v>
       </c>
       <c r="S15" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T15" s="6">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="U15" s="6">
         <v>0</v>
       </c>
       <c r="V15" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -6774,22 +6774,22 @@
         <v>0</v>
       </c>
       <c r="S16" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T16" s="6">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="U16" s="6">
         <v>0</v>
       </c>
       <c r="V16" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:23" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -6823,22 +6823,22 @@
         <v>0</v>
       </c>
       <c r="S17" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T17" s="6">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="U17" s="6">
         <v>0</v>
       </c>
       <c r="V17" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="W17" s="20"/>
     </row>
     <row r="18" spans="1:23" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -6872,16 +6872,16 @@
         <v>0</v>
       </c>
       <c r="S18" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T18" s="6">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="U18" s="6">
         <v>0</v>
       </c>
       <c r="V18" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="W18" s="20"/>
     </row>
@@ -6925,16 +6925,16 @@
         <v>0</v>
       </c>
       <c r="S19" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T19" s="6">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="U19" s="6">
         <v>0</v>
       </c>
       <c r="V19" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
@@ -6977,24 +6977,24 @@
         <v>0</v>
       </c>
       <c r="S20" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T20" s="6">
-        <v>0.5</v>
+        <v>0.35</v>
       </c>
       <c r="U20" s="6">
         <v>0</v>
       </c>
       <c r="V20" s="20" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -7004,43 +7004,43 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L21" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O21" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P21" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O21" s="3" t="s">
+      <c r="Q21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R21" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S21" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R21" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S21" s="3" t="s">
+      <c r="T21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T21" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V21" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
@@ -7085,13 +7085,13 @@
         <v>0</v>
       </c>
       <c r="S22" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T22" s="15">
         <v>0.5</v>
       </c>
       <c r="U22" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.25">
@@ -7099,7 +7099,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C23" s="5"/>
       <c r="D23" s="4" t="s">
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="U23" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
@@ -7193,13 +7193,13 @@
         <v>0</v>
       </c>
       <c r="S24" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T24" s="15">
         <v>0.5</v>
       </c>
       <c r="U24" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.25">
@@ -7207,7 +7207,7 @@
         <v>25</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="4" t="s">
@@ -7254,7 +7254,7 @@
         <v>0</v>
       </c>
       <c r="U25" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.3">
@@ -7303,75 +7303,75 @@
         <v>0</v>
       </c>
       <c r="U26" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="3" t="s">
+      <c r="H27" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="J27" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L27" s="3" t="s">
+      <c r="M27" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P27" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N27" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O27" s="3" t="s">
+      <c r="Q27" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R27" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R27" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S27" s="3" t="s">
+      <c r="T27" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U27" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T27" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U27" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V27" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.3">
@@ -7404,7 +7404,7 @@
         <v>-10</v>
       </c>
       <c r="O28" s="15">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="P28" s="15">
         <v>-0.1</v>
@@ -7422,15 +7422,15 @@
         <v>0</v>
       </c>
       <c r="U28" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>5</v>
@@ -7471,12 +7471,12 @@
         <v>0</v>
       </c>
       <c r="U29" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B30" s="3"/>
       <c r="C30" s="4" t="s">
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="U30" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.3">
@@ -7565,12 +7565,12 @@
         <v>0</v>
       </c>
       <c r="U31" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -7610,12 +7610,12 @@
         <v>0</v>
       </c>
       <c r="U32" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" s="4"/>
@@ -7655,12 +7655,12 @@
         <v>0</v>
       </c>
       <c r="U33" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" s="4"/>
@@ -7700,12 +7700,12 @@
         <v>0</v>
       </c>
       <c r="U34" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="3"/>
       <c r="C35" s="4"/>
@@ -7746,12 +7746,12 @@
         <v>0</v>
       </c>
       <c r="U35" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="4"/>
@@ -7791,12 +7791,12 @@
         <v>0</v>
       </c>
       <c r="U36" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B37" s="3"/>
       <c r="C37" s="4"/>
@@ -7836,12 +7836,12 @@
         <v>0</v>
       </c>
       <c r="U37" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38" s="3"/>
       <c r="C38" s="4"/>
@@ -7881,12 +7881,12 @@
         <v>0</v>
       </c>
       <c r="U38" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B39" s="3"/>
       <c r="C39" s="4"/>
@@ -7926,12 +7926,12 @@
         <v>0</v>
       </c>
       <c r="U39" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B40" s="3"/>
       <c r="C40" s="4"/>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="U40" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:22" ht="15" x14ac:dyDescent="0.25">
@@ -7979,7 +7979,7 @@
         <v>8</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C41" s="5"/>
       <c r="D41" s="4" t="s">
@@ -8024,12 +8024,12 @@
         <v>0</v>
       </c>
       <c r="U41" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:22" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="5"/>
@@ -8069,80 +8069,80 @@
         <v>0</v>
       </c>
       <c r="U42" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="G43" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G43" s="3" t="s">
+      <c r="H43" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="J43" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L43" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K43" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L43" s="3" t="s">
+      <c r="M43" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P43" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O43" s="3" t="s">
+      <c r="Q43" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S43" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q43" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R43" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S43" s="3" t="s">
+      <c r="T43" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U43" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U43" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V43" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -8176,21 +8176,21 @@
         <v>0</v>
       </c>
       <c r="S44" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T44" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="U44" s="6">
         <v>0</v>
       </c>
       <c r="V44" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -8224,21 +8224,21 @@
         <v>0</v>
       </c>
       <c r="S45" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T45" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="U45" s="6">
         <v>0</v>
       </c>
       <c r="V45" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="46" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -8272,21 +8272,21 @@
         <v>0</v>
       </c>
       <c r="S46" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T46" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="U46" s="6">
         <v>0</v>
       </c>
       <c r="V46" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -8320,16 +8320,16 @@
         <v>0</v>
       </c>
       <c r="S47" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T47" s="6">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="U47" s="6">
         <v>0</v>
       </c>
       <c r="V47" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.3">
@@ -8372,16 +8372,16 @@
         <v>0</v>
       </c>
       <c r="S48" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T48" s="6">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="U48" s="6">
         <v>0</v>
       </c>
       <c r="V48" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="1:23" x14ac:dyDescent="0.3">
@@ -8423,22 +8423,18 @@
       <c r="R49" s="6">
         <v>0</v>
       </c>
-      <c r="S49" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="T49" s="6">
-        <v>0.5</v>
-      </c>
+      <c r="S49" s="6"/>
+      <c r="T49" s="6"/>
       <c r="U49" s="6">
         <v>0</v>
       </c>
       <c r="V49" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="5"/>
@@ -8474,24 +8470,24 @@
         <v>0</v>
       </c>
       <c r="S50" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T50" s="6">
-        <v>0.5</v>
+        <v>0.15</v>
       </c>
       <c r="U50" s="6">
         <v>0</v>
       </c>
       <c r="V50" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:23" ht="15" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C51" s="5"/>
       <c r="D51" s="4" t="s">
@@ -8527,90 +8523,86 @@
       <c r="R51" s="6">
         <v>0</v>
       </c>
-      <c r="S51" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="T51" s="6">
-        <v>0.5</v>
-      </c>
+      <c r="S51" s="6"/>
+      <c r="T51" s="6"/>
       <c r="U51" s="6">
         <v>0</v>
       </c>
       <c r="V51" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E52" s="3" t="s">
+      <c r="G52" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G52" s="3" t="s">
+      <c r="H52" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="J52" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="I52" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="L52" s="3" t="s">
+      <c r="M52" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P52" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O52" s="3" t="s">
+      <c r="Q52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S52" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q52" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R52" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S52" s="3" t="s">
+      <c r="T52" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U52" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U52" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V52" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="53" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
@@ -8634,10 +8626,10 @@
     </row>
     <row r="54" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -8647,7 +8639,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="K54" s="6"/>
       <c r="L54" s="6">
@@ -8683,10 +8675,10 @@
     </row>
     <row r="55" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
@@ -8696,7 +8688,7 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="K55" s="6"/>
       <c r="L55" s="6">
@@ -8732,10 +8724,10 @@
     </row>
     <row r="56" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
@@ -8745,7 +8737,7 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K56" s="6"/>
       <c r="L56" s="6">
@@ -8804,10 +8796,10 @@
     </row>
     <row r="58" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A58" s="11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
@@ -8817,7 +8809,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K58" s="6"/>
       <c r="L58" s="6">
@@ -8853,10 +8845,10 @@
     </row>
     <row r="59" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A59" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
@@ -8866,7 +8858,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K59" s="6"/>
       <c r="L59" s="6">
@@ -8902,10 +8894,10 @@
     </row>
     <row r="60" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A60" s="11" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
@@ -8915,7 +8907,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="6">
@@ -8951,10 +8943,10 @@
     </row>
     <row r="61" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
@@ -8964,48 +8956,48 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L61" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N61" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O61" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M61" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N61" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O61" s="3" t="s">
+      <c r="Q61" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R61" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S61" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P61" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q61" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R61" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S61" s="3" t="s">
+      <c r="T61" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U61" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T61" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U61" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V61" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="62" spans="1:23" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A62" s="11" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -9050,7 +9042,7 @@
     </row>
     <row r="63" spans="1:23" s="19" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A63" s="11" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -9095,10 +9087,10 @@
     </row>
     <row r="64" spans="1:23" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
@@ -9140,10 +9132,10 @@
     </row>
     <row r="65" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -9186,10 +9178,10 @@
     </row>
     <row r="66" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A66" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -9232,10 +9224,10 @@
     </row>
     <row r="67" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -9278,10 +9270,10 @@
     </row>
     <row r="68" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -9291,51 +9283,51 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L68" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M68" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N68" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O68" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M68" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N68" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O68" s="3" t="s">
+      <c r="Q68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R68" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S68" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P68" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q68" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R68" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S68" s="3" t="s">
+      <c r="T68" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U68" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T68" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U68" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V68" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="69" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
@@ -9377,10 +9369,10 @@
     </row>
     <row r="70" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
@@ -9422,10 +9414,10 @@
     </row>
     <row r="71" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A71" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
@@ -9435,51 +9427,51 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L71" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M71" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N71" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O71" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P71" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M71" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O71" s="3" t="s">
+      <c r="Q71" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R71" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S71" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P71" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q71" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R71" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S71" s="3" t="s">
+      <c r="T71" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U71" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T71" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U71" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V71" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="72" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A72" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
@@ -9521,7 +9513,7 @@
     </row>
     <row r="73" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="3"/>
@@ -9563,10 +9555,10 @@
     </row>
     <row r="74" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -9608,10 +9600,10 @@
     </row>
     <row r="75" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A75" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
@@ -9621,43 +9613,43 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L75" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N75" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O75" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P75" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M75" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N75" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O75" s="3" t="s">
+      <c r="Q75" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S75" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P75" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q75" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R75" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S75" s="3" t="s">
+      <c r="T75" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U75" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T75" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U75" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V75" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -9665,7 +9657,7 @@
         <v>16</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
@@ -9704,15 +9696,15 @@
       <c r="S76" s="6"/>
       <c r="T76" s="6"/>
       <c r="U76" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="77" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
@@ -9751,15 +9743,15 @@
       <c r="S77" s="6"/>
       <c r="T77" s="6"/>
       <c r="U77" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="78" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -9769,51 +9761,51 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L78" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M78" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N78" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O78" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M78" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N78" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O78" s="3" t="s">
+      <c r="Q78" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R78" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S78" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P78" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q78" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R78" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S78" s="3" t="s">
+      <c r="T78" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U78" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T78" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U78" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V78" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C79" s="8"/>
       <c r="D79" s="8"/>
@@ -9823,7 +9815,7 @@
       <c r="H79" s="8"/>
       <c r="I79" s="8"/>
       <c r="J79" s="6" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K79" s="6"/>
       <c r="L79" s="6">
@@ -9854,15 +9846,15 @@
       <c r="S79" s="6"/>
       <c r="T79" s="6"/>
       <c r="U79" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="80" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A80" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C80" s="8"/>
       <c r="D80" s="8"/>
@@ -9872,7 +9864,7 @@
       <c r="H80" s="8"/>
       <c r="I80" s="8"/>
       <c r="J80" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K80" s="6"/>
       <c r="L80" s="6">
@@ -9903,15 +9895,15 @@
       <c r="S80" s="6"/>
       <c r="T80" s="6"/>
       <c r="U80" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A81" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81" s="8"/>
       <c r="D81" s="8"/>
@@ -9921,7 +9913,7 @@
       <c r="H81" s="8"/>
       <c r="I81" s="8"/>
       <c r="J81" s="6" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K81" s="6"/>
       <c r="L81" s="6">
@@ -9955,10 +9947,10 @@
     </row>
     <row r="82" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -9968,51 +9960,51 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L82" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M82" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N82" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O82" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M82" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N82" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O82" s="3" t="s">
+      <c r="Q82" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R82" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S82" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P82" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q82" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R82" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S82" s="3" t="s">
+      <c r="T82" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U82" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T82" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U82" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V82" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="83" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -10022,7 +10014,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K83" s="6"/>
       <c r="L83" s="6">
@@ -10056,7 +10048,7 @@
         <v>10</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -10066,7 +10058,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K84" s="6"/>
       <c r="L84" s="6">
@@ -10094,7 +10086,7 @@
       <c r="S84" s="6"/>
       <c r="T84" s="6"/>
       <c r="U84" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="85" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10102,7 +10094,7 @@
         <v>17</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -10112,7 +10104,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K85" s="6"/>
       <c r="L85" s="6">
@@ -10135,20 +10127,20 @@
         <v>3</v>
       </c>
       <c r="R85" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S85" s="6"/>
       <c r="T85" s="6"/>
       <c r="U85" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="86" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
@@ -10189,10 +10181,10 @@
     </row>
     <row r="87" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
@@ -10202,7 +10194,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K87" s="6"/>
       <c r="L87" s="6">
@@ -10225,20 +10217,20 @@
         <v>3</v>
       </c>
       <c r="R87" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S87" s="6"/>
       <c r="T87" s="6"/>
       <c r="U87" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="88" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -10248,7 +10240,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K88" s="6"/>
       <c r="L88" s="6">
@@ -10271,20 +10263,20 @@
         <v>3</v>
       </c>
       <c r="R88" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S88" s="6"/>
       <c r="T88" s="6"/>
       <c r="U88" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="89" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
@@ -10296,7 +10288,7 @@
       <c r="J89" s="6"/>
       <c r="K89" s="6"/>
       <c r="L89" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M89" s="6">
         <v>3</v>
@@ -10320,15 +10312,15 @@
       <c r="S89" s="6"/>
       <c r="T89" s="6"/>
       <c r="U89" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A90" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
@@ -10338,43 +10330,43 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L90" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N90" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O90" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M90" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N90" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O90" s="3" t="s">
+      <c r="Q90" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R90" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S90" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P90" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q90" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R90" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S90" s="3" t="s">
+      <c r="T90" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U90" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T90" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U90" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V90" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="91" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -10382,7 +10374,7 @@
         <v>18</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
@@ -10392,7 +10384,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K91" s="6"/>
       <c r="L91" s="6">
@@ -10428,7 +10420,7 @@
         <v>30</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
@@ -10438,7 +10430,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K92" s="6"/>
       <c r="L92" s="6">
@@ -10471,10 +10463,10 @@
     </row>
     <row r="93" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -10484,7 +10476,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K93" s="6"/>
       <c r="L93" s="6">
@@ -10511,15 +10503,15 @@
       <c r="S93" s="6"/>
       <c r="T93" s="6"/>
       <c r="U93" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="94" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -10529,7 +10521,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="K94" s="6"/>
       <c r="L94" s="6">
@@ -10561,10 +10553,10 @@
     </row>
     <row r="95" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A95" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
@@ -10574,51 +10566,51 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L95" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M95" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N95" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O95" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M95" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N95" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O95" s="3" t="s">
+      <c r="Q95" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R95" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S95" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P95" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q95" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R95" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S95" s="3" t="s">
+      <c r="T95" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U95" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T95" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U95" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V95" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="96" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A96" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
@@ -10628,7 +10620,7 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K96" s="6"/>
       <c r="L96" s="6">
@@ -10658,10 +10650,10 @@
     </row>
     <row r="97" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A97" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
@@ -10701,10 +10693,10 @@
     </row>
     <row r="98" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A98" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
@@ -10745,7 +10737,7 @@
     <row r="99" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A99" s="12"/>
       <c r="B99" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
@@ -10769,10 +10761,10 @@
     </row>
     <row r="100" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -10782,7 +10774,7 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K100" s="6"/>
       <c r="L100" s="6">
@@ -10812,10 +10804,10 @@
     </row>
     <row r="101" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -10855,10 +10847,10 @@
     </row>
     <row r="102" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -10899,7 +10891,7 @@
     <row r="103" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="12"/>
       <c r="B103" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
@@ -10923,10 +10915,10 @@
     </row>
     <row r="104" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="12" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
@@ -10936,7 +10928,7 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K104" s="6"/>
       <c r="L104" s="6">
@@ -10966,10 +10958,10 @@
     </row>
     <row r="105" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A105" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -11009,10 +11001,10 @@
     </row>
     <row r="106" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A106" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -11075,10 +11067,10 @@
     </row>
     <row r="108" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A108" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -11088,51 +11080,51 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L108" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M108" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P108" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M108" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N108" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O108" s="3" t="s">
+      <c r="Q108" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R108" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S108" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P108" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q108" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R108" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S108" s="3" t="s">
+      <c r="T108" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U108" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T108" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U108" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V108" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="109" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -11142,7 +11134,7 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K109" s="6"/>
       <c r="L109" s="6">
@@ -11177,7 +11169,7 @@
     <row r="110" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A110" s="10"/>
       <c r="B110" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -11187,7 +11179,7 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="K110" s="6"/>
       <c r="L110" s="6">
@@ -11222,7 +11214,7 @@
     <row r="111" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="10"/>
       <c r="B111" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -11232,7 +11224,7 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K111" s="6"/>
       <c r="L111" s="6">
@@ -11266,10 +11258,10 @@
     </row>
     <row r="112" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A112" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
@@ -11279,43 +11271,43 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L112" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M112" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P112" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M112" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N112" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O112" s="3" t="s">
+      <c r="Q112" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R112" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S112" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="P112" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q112" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R112" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S112" s="3" t="s">
+      <c r="T112" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="U112" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="T112" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="U112" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="V112" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="113" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
@@ -11323,7 +11315,7 @@
         <v>20</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
@@ -11333,7 +11325,7 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K113" s="6"/>
       <c r="L113" s="6">
@@ -11345,8 +11337,7 @@
         <v>16</v>
       </c>
       <c r="N113" s="6">
-        <f>(N3+4)+(N4+4)+(N5+4)</f>
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O113" s="6">
         <v>-35</v>
@@ -11370,7 +11361,7 @@
         <v>31</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -11380,7 +11371,7 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K114" s="6"/>
       <c r="L114" s="6">
@@ -11392,8 +11383,7 @@
         <v>23</v>
       </c>
       <c r="N114" s="6">
-        <f>(N47+4)+(N3+4)+(N5+4)</f>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="O114" s="6">
         <v>-50</v>
@@ -11414,10 +11404,10 @@
     </row>
     <row r="115" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
-        <v>32</v>
+        <v>191</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
@@ -11427,7 +11417,7 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="6" t="s">
-        <v>131</v>
+        <v>192</v>
       </c>
       <c r="K115" s="6"/>
       <c r="L115" s="6">
@@ -11435,15 +11425,13 @@
         <v>6</v>
       </c>
       <c r="M115" s="6">
-        <f>(M50+3)+(M3+3)</f>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="N115" s="6">
-        <f>(N50+3)+(N3+3)</f>
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="O115" s="6">
-        <v>-25</v>
+        <v>-40</v>
       </c>
       <c r="P115" s="6">
         <v>0.4</v>
@@ -11461,10 +11449,10 @@
     </row>
     <row r="116" spans="1:22" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A116" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -11474,41 +11462,41 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L116" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="M116" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N116" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P116" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="M116" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="N116" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O116" s="3" t="s">
+      <c r="Q116" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="R116" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="S116" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="P116" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q116" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="R116" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="S116" s="3" t="s">
-        <v>55</v>
       </c>
       <c r="T116" s="3"/>
       <c r="U116" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V116" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.3">
@@ -11551,11 +11539,11 @@
         <v>0</v>
       </c>
       <c r="S117" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T117" s="15"/>
       <c r="U117" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="118" spans="1:22" ht="15" x14ac:dyDescent="0.25">
@@ -11563,7 +11551,7 @@
         <v>22</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C118" s="5"/>
       <c r="D118" s="4" t="s">
@@ -11602,7 +11590,7 @@
       <c r="S118" s="15"/>
       <c r="T118" s="15"/>
       <c r="U118" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.3">
@@ -11647,11 +11635,11 @@
         <v>0</v>
       </c>
       <c r="S119" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="T119" s="15"/>
       <c r="U119" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="120" spans="1:22" ht="15" x14ac:dyDescent="0.25">
@@ -11659,7 +11647,7 @@
         <v>25</v>
       </c>
       <c r="B120" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C120" s="5"/>
       <c r="D120" s="4" t="s">
@@ -11698,7 +11686,7 @@
       <c r="S120" s="15"/>
       <c r="T120" s="15"/>
       <c r="U120" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.3">
@@ -11743,7 +11731,7 @@
       <c r="S121" s="15"/>
       <c r="T121" s="15"/>
       <c r="U121" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.3">
@@ -11917,7 +11905,7 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B127" s="3"/>
       <c r="C127" s="5"/>
@@ -11930,7 +11918,7 @@
       <c r="F127" s="5"/>
       <c r="G127" s="5"/>
       <c r="H127" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>4</v>
@@ -11950,7 +11938,7 @@
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B128" s="3"/>
       <c r="C128" s="5"/>
@@ -11981,7 +11969,7 @@
     </row>
     <row r="129" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B129" s="3"/>
       <c r="C129" s="5"/>
@@ -12012,7 +12000,7 @@
     </row>
     <row r="130" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="5"/>
@@ -12043,7 +12031,7 @@
     </row>
     <row r="131" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B131" s="3"/>
       <c r="C131" s="5"/>
@@ -12056,7 +12044,7 @@
       <c r="F131" s="5"/>
       <c r="G131" s="5"/>
       <c r="H131" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>4</v>
@@ -12076,7 +12064,7 @@
     </row>
     <row r="132" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A132" s="10" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B132" s="3"/>
       <c r="C132" s="4"/>
@@ -12193,7 +12181,7 @@
     </row>
     <row r="139" spans="1:21" x14ac:dyDescent="0.3">
       <c r="J139" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
